--- a/TalentCorp/candidatos.xlsx
+++ b/TalentCorp/candidatos.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Id</t>
   </si>
@@ -29,16 +29,13 @@
     <t>FechaIngreso</t>
   </si>
   <si>
-    <t>Departamento</t>
+    <t>PuestoId</t>
   </si>
   <si>
-    <t>Estado</t>
+    <t>Puesto</t>
   </si>
   <si>
     <t>Educacions</t>
-  </si>
-  <si>
-    <t>Empleados</t>
   </si>
   <si>
     <t>Entrevista</t>
@@ -47,31 +44,28 @@
     <t>ExperienciaLaborals</t>
   </si>
   <si>
-    <t>1</t>
+    <t>7</t>
   </si>
   <si>
-    <t>23423452342</t>
+    <t>40251697245</t>
   </si>
   <si>
-    <t>Pedro</t>
+    <t>Carlo</t>
   </si>
   <si>
-    <t>Pimentel</t>
+    <t>Gonzalez</t>
   </si>
   <si>
-    <t>4/12/2024 12:00:00 PM</t>
+    <t>07-Aug-24 5:58:00 PM</t>
   </si>
   <si>
-    <t>RECURSOS HUMANOS</t>
+    <t>3</t>
   </si>
   <si>
-    <t>ACTIVO</t>
+    <t/>
   </si>
   <si>
     <t>System.Collections.Generic.List`1[TalentCorp.Entities.Educacion]</t>
-  </si>
-  <si>
-    <t>System.Collections.Generic.List`1[TalentCorp.Entities.Empleado]</t>
   </si>
   <si>
     <t>System.Collections.Generic.List`1[TalentCorp.Entities.Entrevista]</t>
@@ -124,7 +118,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr codeName=""/>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -161,43 +155,37 @@
       <c r="J1" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="0" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="C2" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="D2" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="E2" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="F2" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="G2" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="H2" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="I2" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="0" t="s">
+      <c r="J2" s="0" t="s">
         <v>19</v>
-      </c>
-      <c r="J2" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="0" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
